--- a/DataAnalysis/fileExcel/绑定注册.xlsx
+++ b/DataAnalysis/fileExcel/绑定注册.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac-pc/PycharmProjects/DataAnalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac-pc/PycharmProjects/DataAnalysis/fileExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20880" yWindow="8140" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="25660" yWindow="14500" windowWidth="21100" windowHeight="9860" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="注册量" sheetId="1" r:id="rId1"/>
@@ -31,94 +31,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
-  <si>
-    <t>m_time</t>
-  </si>
-  <si>
-    <t>y_time</t>
-  </si>
-  <si>
-    <t>t_time</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+  <si>
+    <t>机器绑定总量</t>
+  </si>
+  <si>
+    <t>吸尘器绑定总量</t>
+  </si>
+  <si>
+    <t>2019-6</t>
+  </si>
+  <si>
+    <t>2019-7</t>
+  </si>
+  <si>
+    <t>2019-8</t>
+  </si>
+  <si>
+    <t>2019-9</t>
+  </si>
+  <si>
+    <t>2019-10</t>
+  </si>
+  <si>
+    <t>2019-11</t>
+  </si>
+  <si>
+    <t>2019-12</t>
+  </si>
+  <si>
+    <t>2020-2</t>
+  </si>
+  <si>
+    <t>2020-3</t>
+  </si>
+  <si>
+    <t>2020-4</t>
+  </si>
+  <si>
+    <t>2020-5</t>
+  </si>
+  <si>
+    <t>时间</t>
   </si>
   <si>
     <t>注册量</t>
+  </si>
+  <si>
+    <t>2019-3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>机器绑定总量</t>
-  </si>
-  <si>
-    <t>吸尘器绑定总量</t>
+    <t>2019-4</t>
+  </si>
+  <si>
+    <t>2019-5</t>
+  </si>
+  <si>
+    <t>2020-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-6</t>
   </si>
   <si>
     <t>水机绑定总量</t>
-  </si>
-  <si>
-    <t>吹风机绑定总量</t>
-  </si>
-  <si>
-    <t>时间</t>
     <rPh sb="0" eb="1">
-      <t>shi'jian</t>
+      <t>shui'ji</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2019-3</t>
+    <t>吹风机绑定总量</t>
+    <rPh sb="0" eb="1">
+      <t>chui'feng'ji</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-6</t>
-  </si>
-  <si>
-    <t>2019-7</t>
-  </si>
-  <si>
-    <t>2019-8</t>
-  </si>
-  <si>
-    <t>2019-9</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-2</t>
-  </si>
-  <si>
-    <t>2020-3</t>
-  </si>
-  <si>
-    <t>2020-4</t>
-  </si>
-  <si>
-    <t>2020-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,11 +144,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="Menlo"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,10 +169,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -460,144 +450,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
+      <c r="A1" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
+      <c r="A2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="2">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
+      <c r="A3" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B3" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
+      <c r="A4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B4" s="2">
         <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
+      <c r="A5" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
+      <c r="A6" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
+      <c r="A7" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
+      <c r="A8" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>16</v>
+      <c r="A9" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>17</v>
+      <c r="A10" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="2">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="B12" s="2">
         <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>20</v>
+      <c r="A13" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>21</v>
+      <c r="A14" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>1051</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>22</v>
+      <c r="A15" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B15" s="2">
-        <v>1796</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="22" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>23</v>
+      <c r="A16" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B16" s="2">
-        <v>2689</v>
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6168</v>
       </c>
     </row>
   </sheetData>
@@ -608,188 +606,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
+    <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>71</v>
+    </row>
+    <row r="2" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>43525</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>82</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>43556</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>43586</v>
+      </c>
+      <c r="B4" s="2">
         <v>128</v>
       </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    </row>
+    <row r="5" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>43617</v>
+      </c>
+      <c r="B5" s="2">
         <v>191</v>
       </c>
-      <c r="B5" s="2">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>96</v>
+    </row>
+    <row r="6" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>43647</v>
       </c>
       <c r="B6" s="2">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>43678</v>
+      </c>
+      <c r="B7" s="2">
         <v>118</v>
       </c>
-      <c r="B7" s="2">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    </row>
+    <row r="8" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>43709</v>
+      </c>
+      <c r="B8" s="2">
         <v>129</v>
       </c>
-      <c r="B8" s="2">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>123</v>
+    </row>
+    <row r="9" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>43739</v>
       </c>
       <c r="B9" s="2">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>346</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>43770</v>
       </c>
       <c r="B10" s="2">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>192</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>43800</v>
       </c>
       <c r="B11" s="2">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>202</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>43831</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>173</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>43862</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>814</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>43891</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>1345</v>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>43922</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>2053</v>
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>43952</v>
       </c>
       <c r="B16" s="2">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2020</v>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>43983</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4808</v>
       </c>
     </row>
   </sheetData>
@@ -800,188 +762,167 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
+      <c r="A1" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>71</v>
+      <c r="A2" s="6">
+        <v>43525</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2019</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>82</v>
+      <c r="A3" s="6">
+        <v>43556</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2019</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
+        <v>43586</v>
+      </c>
+      <c r="B4" s="2">
         <v>128</v>
       </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2019</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
+        <v>43617</v>
+      </c>
+      <c r="B5" s="2">
         <v>191</v>
       </c>
-      <c r="B5" s="2">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2019</v>
-      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>96</v>
+      <c r="A6" s="6">
+        <v>43647</v>
       </c>
       <c r="B6" s="2">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2019</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="6">
+        <v>43678</v>
+      </c>
+      <c r="B7" s="2">
         <v>118</v>
       </c>
-      <c r="B7" s="2">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2019</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
+        <v>43709</v>
+      </c>
+      <c r="B8" s="2">
         <v>129</v>
       </c>
-      <c r="B8" s="2">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2019</v>
-      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>123</v>
+      <c r="A9" s="6">
+        <v>43739</v>
       </c>
       <c r="B9" s="2">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2019</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>346</v>
+      <c r="A10" s="6">
+        <v>43770</v>
       </c>
       <c r="B10" s="2">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2019</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="6">
+        <v>43800</v>
+      </c>
+      <c r="B11" s="2">
         <v>190</v>
       </c>
-      <c r="B11" s="2">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2019</v>
-      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>199</v>
+      <c r="A12" s="6">
+        <v>43831</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2020</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>172</v>
+      <c r="A13" s="6">
+        <v>43862</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2020</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>261</v>
+      <c r="A14" s="6">
+        <v>43891</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2020</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>161</v>
+      <c r="A15" s="6">
+        <v>43922</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2020</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>218</v>
+      <c r="A16" s="6">
+        <v>43952</v>
       </c>
       <c r="B16" s="2">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2020</v>
+        <v>148</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>43983</v>
+      </c>
+      <c r="B17" s="2">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -992,56 +933,55 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
+    <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>486</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>43891</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>1146</v>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>43922</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>1796</v>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>43952</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2020</v>
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="22" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>43983</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4614</v>
       </c>
     </row>
   </sheetData>
@@ -1052,56 +992,55 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
+      <c r="A1" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="6">
+        <v>43891</v>
+      </c>
+      <c r="B2" s="2">
         <v>67</v>
       </c>
-      <c r="B2" s="2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2020</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>38</v>
+      <c r="A3" s="6">
+        <v>43922</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2020</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="22" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>38</v>
+      <c r="A4" s="6">
+        <v>43952</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2020</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="22" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>43983</v>
+      </c>
+      <c r="B5" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
